--- a/Portfolio Data_Hypothetical.xlsx
+++ b/Portfolio Data_Hypothetical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Instrument</t>
   </si>
@@ -49,9 +49,6 @@
     <t>NATIONALUM</t>
   </si>
   <si>
-    <t>OIL</t>
-  </si>
-  <si>
     <t>Motilal Oswal Large and Midcap Fund</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>Mining</t>
-  </si>
-  <si>
-    <t>Oil</t>
   </si>
   <si>
     <t>Equity</t>
@@ -898,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -947,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -982,10 +976,10 @@
         <v>0.52</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -996,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="C3">
-        <v>188.49</v>
+        <v>250.5</v>
       </c>
       <c r="D3">
         <v>234.14</v>
@@ -1017,10 +1011,10 @@
         <v>-1.65</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1028,69 +1022,34 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>3350.4490000000001</v>
       </c>
       <c r="C4">
-        <v>416.44</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="D4">
-        <v>433.35</v>
+        <v>38.326300000000003</v>
       </c>
       <c r="E4">
-        <v>19988.95</v>
+        <v>110394.61</v>
       </c>
       <c r="F4">
-        <v>20800.8</v>
+        <v>128410.31</v>
       </c>
       <c r="G4">
-        <v>811.85</v>
+        <v>18015.7</v>
       </c>
       <c r="H4">
-        <v>4.0599999999999996</v>
+        <v>16.32</v>
       </c>
       <c r="I4">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>3350.4490000000001</v>
-      </c>
-      <c r="C5">
-        <v>32.950000000000003</v>
-      </c>
-      <c r="D5">
-        <v>38.326300000000003</v>
-      </c>
-      <c r="E5">
-        <v>110394.61</v>
-      </c>
-      <c r="F5">
-        <v>128410.31</v>
-      </c>
-      <c r="G5">
-        <v>18015.7</v>
-      </c>
-      <c r="H5">
-        <v>16.32</v>
-      </c>
-      <c r="I5">
-        <v>-0.34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
